--- a/расписание на пятницу.xlsx
+++ b/расписание на пятницу.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b28425dc8058990/Рабочий стол/проект/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\local_admin\PycharmProjects\telegrambot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA6A7F0B-8E73-491C-BEF8-6034237B1055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FC0715-9DBF-4BCD-AD90-1DC45F5FA607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17100" yWindow="0" windowWidth="17400" windowHeight="20985" xr2:uid="{40513181-0AA5-4FC0-9FDF-9C6F95A56716}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{40513181-0AA5-4FC0-9FDF-9C6F95A56716}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -413,9 +413,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -453,7 +453,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -559,7 +559,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -701,7 +701,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -712,15 +712,15 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -749,7 +749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -772,7 +772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -783,7 +783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -800,7 +800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -826,7 +826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -846,7 +846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -863,7 +863,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11</v>
       </c>
@@ -886,7 +886,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12</v>
       </c>
@@ -906,7 +906,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
@@ -935,7 +935,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
@@ -961,7 +961,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>15</v>
       </c>
@@ -987,7 +987,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>16</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>17</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>18</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
